--- a/doc/SUZB3cg_3anos.xlsx
+++ b/doc/SUZB3cg_3anos.xlsx
@@ -245,6 +245,9 @@
           <c:tx>
             <c:v>Retornos da Ação</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -4754,6 +4757,9 @@
           <c:tx>
             <c:v>Retornos do Mercado</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
